--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.471632</v>
+        <v>50.000707</v>
       </c>
       <c r="H2">
-        <v>133.414896</v>
+        <v>150.002121</v>
       </c>
       <c r="I2">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="J2">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.17516666666667</v>
+        <v>17.051494</v>
       </c>
       <c r="N2">
-        <v>48.52549999999999</v>
+        <v>51.154482</v>
       </c>
       <c r="O2">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="P2">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="Q2">
-        <v>719.3360595386666</v>
+        <v>852.586755406258</v>
       </c>
       <c r="R2">
-        <v>6474.024535847999</v>
+        <v>7673.280798656322</v>
       </c>
       <c r="S2">
-        <v>0.0587373476193526</v>
+        <v>0.06889580989849203</v>
       </c>
       <c r="T2">
-        <v>0.0587373476193526</v>
+        <v>0.06889580989849201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.471632</v>
+        <v>50.000707</v>
       </c>
       <c r="H3">
-        <v>133.414896</v>
+        <v>150.002121</v>
       </c>
       <c r="I3">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="J3">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>21.45763766666667</v>
       </c>
       <c r="N3">
-        <v>64.37291300000001</v>
+        <v>64.372913</v>
       </c>
       <c r="O3">
-        <v>0.2919748221596839</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="P3">
-        <v>0.291974822159684</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="Q3">
-        <v>954.2561659013388</v>
+        <v>1072.897053883164</v>
       </c>
       <c r="R3">
-        <v>8588.30549311205</v>
+        <v>9656.073484948472</v>
       </c>
       <c r="S3">
-        <v>0.07791973638914268</v>
+        <v>0.08669863916636213</v>
       </c>
       <c r="T3">
-        <v>0.07791973638914269</v>
+        <v>0.08669863916636208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.471632</v>
+        <v>50.000707</v>
       </c>
       <c r="H4">
-        <v>133.414896</v>
+        <v>150.002121</v>
       </c>
       <c r="I4">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="J4">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.56386866666666</v>
+        <v>21.25262066666667</v>
       </c>
       <c r="N4">
-        <v>58.69160599999999</v>
+        <v>63.757862</v>
       </c>
       <c r="O4">
-        <v>0.2662062414996853</v>
+        <v>0.2768321708040216</v>
       </c>
       <c r="P4">
-        <v>0.2662062414996854</v>
+        <v>0.2768321708040215</v>
       </c>
       <c r="Q4">
-        <v>870.0371678403305</v>
+        <v>1062.646058936145</v>
       </c>
       <c r="R4">
-        <v>7830.334510562975</v>
+        <v>9563.814530425301</v>
       </c>
       <c r="S4">
-        <v>0.07104283858919704</v>
+        <v>0.08587027701475482</v>
       </c>
       <c r="T4">
-        <v>0.07104283858919705</v>
+        <v>0.08587027701475479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.471632</v>
+        <v>50.000707</v>
       </c>
       <c r="H5">
-        <v>133.414896</v>
+        <v>150.002121</v>
       </c>
       <c r="I5">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="J5">
-        <v>0.2668714234083088</v>
+        <v>0.3101889378151254</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.29472433333333</v>
+        <v>17.009024</v>
       </c>
       <c r="N5">
-        <v>48.884173</v>
+        <v>51.027072</v>
       </c>
       <c r="O5">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="P5">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="Q5">
-        <v>724.6529840934454</v>
+        <v>850.463225379968</v>
       </c>
       <c r="R5">
-        <v>6521.876856841009</v>
+        <v>7654.169028419712</v>
       </c>
       <c r="S5">
-        <v>0.0591715008106165</v>
+        <v>0.06872421173551646</v>
       </c>
       <c r="T5">
-        <v>0.05917150081061651</v>
+        <v>0.06872421173551645</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>111.173729</v>
       </c>
       <c r="I6">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="J6">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.17516666666667</v>
+        <v>17.051494</v>
       </c>
       <c r="N6">
-        <v>48.52549999999999</v>
+        <v>51.154482</v>
       </c>
       <c r="O6">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="P6">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="Q6">
-        <v>599.4178651766111</v>
+        <v>631.8927243337088</v>
       </c>
       <c r="R6">
-        <v>5394.760786589499</v>
+        <v>5687.034519003378</v>
       </c>
       <c r="S6">
-        <v>0.04894543384730219</v>
+        <v>0.0510619719763194</v>
       </c>
       <c r="T6">
-        <v>0.04894543384730218</v>
+        <v>0.05106197197631938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>111.173729</v>
       </c>
       <c r="I7">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="J7">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>21.45763766666667</v>
       </c>
       <c r="N7">
-        <v>64.37291300000001</v>
+        <v>64.372913</v>
       </c>
       <c r="O7">
-        <v>0.2919748221596839</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="P7">
-        <v>0.291974822159684</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="Q7">
-        <v>795.1751983113976</v>
+        <v>795.1751983113975</v>
       </c>
       <c r="R7">
-        <v>7156.576784802578</v>
+        <v>7156.576784802576</v>
       </c>
       <c r="S7">
-        <v>0.06492998845554687</v>
+        <v>0.06425649818211523</v>
       </c>
       <c r="T7">
-        <v>0.06492998845554689</v>
+        <v>0.06425649818211521</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>111.173729</v>
       </c>
       <c r="I8">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="J8">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.56386866666666</v>
+        <v>21.25262066666667</v>
       </c>
       <c r="N8">
-        <v>58.69160599999999</v>
+        <v>63.757862</v>
       </c>
       <c r="O8">
-        <v>0.2662062414996853</v>
+        <v>0.2768321708040216</v>
       </c>
       <c r="P8">
-        <v>0.2662062414996854</v>
+        <v>0.2768321708040215</v>
       </c>
       <c r="Q8">
-        <v>724.9960777798638</v>
+        <v>787.5776968452666</v>
       </c>
       <c r="R8">
-        <v>6524.964700018773</v>
+        <v>7088.199271607398</v>
       </c>
       <c r="S8">
-        <v>0.05919951610730284</v>
+        <v>0.06364255946749768</v>
       </c>
       <c r="T8">
-        <v>0.05919951610730285</v>
+        <v>0.06364255946749765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>111.173729</v>
       </c>
       <c r="I9">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="J9">
-        <v>0.2223821491705063</v>
+        <v>0.2298958220161207</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.29472433333333</v>
+        <v>17.009024</v>
       </c>
       <c r="N9">
-        <v>48.884173</v>
+        <v>51.027072</v>
       </c>
       <c r="O9">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="P9">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="Q9">
-        <v>603.8484223879019</v>
+        <v>630.3188749101654</v>
       </c>
       <c r="R9">
-        <v>5434.635801491117</v>
+        <v>5672.869874191488</v>
       </c>
       <c r="S9">
-        <v>0.04930721076035437</v>
+        <v>0.05093479239018845</v>
       </c>
       <c r="T9">
-        <v>0.04930721076035437</v>
+        <v>0.05093479239018844</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.45576366666668</v>
+        <v>46.58340866666666</v>
       </c>
       <c r="H10">
-        <v>136.367291</v>
+        <v>139.750226</v>
       </c>
       <c r="I10">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="J10">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.17516666666667</v>
+        <v>17.051494</v>
       </c>
       <c r="N10">
-        <v>48.52549999999999</v>
+        <v>51.154482</v>
       </c>
       <c r="O10">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="P10">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="Q10">
-        <v>735.2545532689446</v>
+        <v>794.3167133792147</v>
       </c>
       <c r="R10">
-        <v>6617.290979420501</v>
+        <v>7148.850420412932</v>
       </c>
       <c r="S10">
-        <v>0.06003717137684847</v>
+        <v>0.06418712575249051</v>
       </c>
       <c r="T10">
-        <v>0.06003717137684847</v>
+        <v>0.0641871257524905</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.45576366666668</v>
+        <v>46.58340866666666</v>
       </c>
       <c r="H11">
-        <v>136.367291</v>
+        <v>139.750226</v>
       </c>
       <c r="I11">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="J11">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>21.45763766666667</v>
       </c>
       <c r="N11">
-        <v>64.37291300000001</v>
+        <v>64.372913</v>
       </c>
       <c r="O11">
-        <v>0.2919748221596839</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="P11">
-        <v>0.291974822159684</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="Q11">
-        <v>975.3733066209652</v>
+        <v>999.5699044475931</v>
       </c>
       <c r="R11">
-        <v>8778.359759588686</v>
+        <v>8996.129140028337</v>
       </c>
       <c r="S11">
-        <v>0.0796440553895984</v>
+        <v>0.08077322064927039</v>
       </c>
       <c r="T11">
-        <v>0.07964405538959841</v>
+        <v>0.08077322064927038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.45576366666668</v>
+        <v>46.58340866666666</v>
       </c>
       <c r="H12">
-        <v>136.367291</v>
+        <v>139.750226</v>
       </c>
       <c r="I12">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="J12">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.56386866666666</v>
+        <v>21.25262066666667</v>
       </c>
       <c r="N12">
-        <v>58.69160599999999</v>
+        <v>63.757862</v>
       </c>
       <c r="O12">
-        <v>0.2662062414996853</v>
+        <v>0.2768321708040216</v>
       </c>
       <c r="P12">
-        <v>0.2662062414996854</v>
+        <v>0.2768321708040215</v>
       </c>
       <c r="Q12">
-        <v>889.2905905177053</v>
+        <v>990.0195137529792</v>
       </c>
       <c r="R12">
-        <v>8003.615314659346</v>
+        <v>8910.175623776813</v>
       </c>
       <c r="S12">
-        <v>0.07261497579220137</v>
+        <v>0.08000147290913701</v>
       </c>
       <c r="T12">
-        <v>0.07261497579220139</v>
+        <v>0.08000147290913698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.45576366666668</v>
+        <v>46.58340866666666</v>
       </c>
       <c r="H13">
-        <v>136.367291</v>
+        <v>139.750226</v>
       </c>
       <c r="I13">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="J13">
-        <v>0.272777134687457</v>
+        <v>0.2889890747769074</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.29472433333333</v>
+        <v>17.009024</v>
       </c>
       <c r="N13">
-        <v>48.884173</v>
+        <v>51.027072</v>
       </c>
       <c r="O13">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="P13">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="Q13">
-        <v>740.6891383094828</v>
+        <v>792.3383160131413</v>
       </c>
       <c r="R13">
-        <v>6666.202244785345</v>
+        <v>7131.044844118273</v>
       </c>
       <c r="S13">
-        <v>0.06048093212880875</v>
+        <v>0.06402725546600956</v>
       </c>
       <c r="T13">
-        <v>0.06048093212880876</v>
+        <v>0.06402725546600956</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.65536166666666</v>
+        <v>27.55233366666667</v>
       </c>
       <c r="H14">
-        <v>118.966085</v>
+        <v>82.65700100000001</v>
       </c>
       <c r="I14">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="J14">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.17516666666667</v>
+        <v>17.051494</v>
       </c>
       <c r="N14">
-        <v>48.52549999999999</v>
+        <v>51.154482</v>
       </c>
       <c r="O14">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="P14">
-        <v>0.2200960555056711</v>
+        <v>0.2221091776636934</v>
       </c>
       <c r="Q14">
-        <v>641.4320841852777</v>
+        <v>469.8084522031647</v>
       </c>
       <c r="R14">
-        <v>5772.888757667499</v>
+        <v>4228.276069828483</v>
       </c>
       <c r="S14">
-        <v>0.05237610266216787</v>
+        <v>0.03796427003639146</v>
       </c>
       <c r="T14">
-        <v>0.05237610266216787</v>
+        <v>0.03796427003639145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.65536166666666</v>
+        <v>27.55233366666667</v>
       </c>
       <c r="H15">
-        <v>118.966085</v>
+        <v>82.65700100000001</v>
       </c>
       <c r="I15">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="J15">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>21.45763766666667</v>
       </c>
       <c r="N15">
-        <v>64.37291300000001</v>
+        <v>64.372913</v>
       </c>
       <c r="O15">
-        <v>0.2919748221596839</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="P15">
-        <v>0.291974822159684</v>
+        <v>0.2795026791639973</v>
       </c>
       <c r="Q15">
-        <v>850.9103821839562</v>
+        <v>591.2079926904348</v>
       </c>
       <c r="R15">
-        <v>7658.193439655606</v>
+        <v>5320.871934213913</v>
       </c>
       <c r="S15">
-        <v>0.06948104192539595</v>
+        <v>0.0477743211662496</v>
       </c>
       <c r="T15">
-        <v>0.06948104192539596</v>
+        <v>0.04777432116624959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.65536166666666</v>
+        <v>27.55233366666667</v>
       </c>
       <c r="H16">
-        <v>118.966085</v>
+        <v>82.65700100000001</v>
       </c>
       <c r="I16">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="J16">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.56386866666666</v>
+        <v>21.25262066666667</v>
       </c>
       <c r="N16">
-        <v>58.69160599999999</v>
+        <v>63.757862</v>
       </c>
       <c r="O16">
-        <v>0.2662062414996853</v>
+        <v>0.2768321708040216</v>
       </c>
       <c r="P16">
-        <v>0.2662062414996854</v>
+        <v>0.2768321708040215</v>
       </c>
       <c r="Q16">
-        <v>775.8122875758343</v>
+        <v>585.5592958990959</v>
       </c>
       <c r="R16">
-        <v>6982.310588182509</v>
+        <v>5270.033663091863</v>
       </c>
       <c r="S16">
-        <v>0.06334891101098407</v>
+        <v>0.04731786141263207</v>
       </c>
       <c r="T16">
-        <v>0.06334891101098408</v>
+        <v>0.04731786141263206</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.65536166666666</v>
+        <v>27.55233366666667</v>
       </c>
       <c r="H17">
-        <v>118.966085</v>
+        <v>82.65700100000001</v>
       </c>
       <c r="I17">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="J17">
-        <v>0.2379692927337279</v>
+        <v>0.1709261653918464</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.29472433333333</v>
+        <v>17.009024</v>
       </c>
       <c r="N17">
-        <v>48.884173</v>
+        <v>51.027072</v>
       </c>
       <c r="O17">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="P17">
-        <v>0.2217228808349596</v>
+        <v>0.2215559723682878</v>
       </c>
       <c r="Q17">
-        <v>646.1731866969673</v>
+        <v>468.6383045923414</v>
       </c>
       <c r="R17">
-        <v>5815.558680272705</v>
+        <v>4217.744741331073</v>
       </c>
       <c r="S17">
-        <v>0.05276323713517996</v>
+        <v>0.03786971277657331</v>
       </c>
       <c r="T17">
-        <v>0.05276323713517996</v>
+        <v>0.03786971277657331</v>
       </c>
     </row>
   </sheetData>
